--- a/alao_p0/P0_Hello_to_RoSA/Orders.xlsx
+++ b/alao_p0/P0_Hello_to_RoSA/Orders.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\P0_Hello_to_RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\alao_p0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EC198A-148F-4F34-B56E-97BD63E4E1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A601C8FA-F5B8-4494-8B9C-D507C442F12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6048" yWindow="192" windowWidth="11808" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6396" yWindow="540" windowWidth="11808" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>T-shirt</t>
   </si>
   <si>
-    <t>Coke</t>
-  </si>
-  <si>
     <t>Prices</t>
+  </si>
+  <si>
+    <t>cok</t>
   </si>
 </sst>
 </file>
@@ -388,15 +388,15 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
